--- a/categories - Rebrickable, BrickLink and Custom.xlsx
+++ b/categories - Rebrickable, BrickLink and Custom.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brydo\Documents\GitHub\BrickLink\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C140F-8023-4A62-B07D-3D30A531C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B3497-C82F-4CC0-9375-1B1F6321260F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{34AA68D1-0225-4AE3-B015-1BD334BED3BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34AA68D1-0225-4AE3-B015-1BD334BED3BB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rebrickable, Download" sheetId="2" r:id="rId1"/>
+    <sheet name="Rebrickable" sheetId="2" r:id="rId1"/>
     <sheet name="BrickLink, Custom" sheetId="3" r:id="rId2"/>
-    <sheet name="Missing" sheetId="4" r:id="rId3"/>
+    <sheet name="BrickLink, Missing" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Rebrickable, Download'!$A$1:$B$68</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">Rebrickable!$A$1:$B$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2758CA72-CE77-436A-8F01-2AEE13A434D9}">
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -1588,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3EB7C6-C939-44D8-9788-1B3593DD82A4}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
